--- a/Flores González Ángel 20212.xlsx
+++ b/Flores González Ángel 20212.xlsx
@@ -5287,7 +5287,7 @@
         <v>171</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5692,7 +5692,7 @@
         <v>266</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/Flores González Ángel 20212.xlsx
+++ b/Flores González Ángel 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1533">
   <si>
     <t>NC</t>
   </si>
@@ -2292,6 +2292,9 @@
     <t>ROJAS</t>
   </si>
   <si>
+    <t>RUBALCAVA</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
@@ -2355,6 +2358,9 @@
     <t>ZEPEDA</t>
   </si>
   <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
     <t>ARAUZ</t>
   </si>
   <si>
@@ -2461,6 +2467,9 @@
   </si>
   <si>
     <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>BRIANDA RENEE</t>
   </si>
   <si>
     <t>ISAI</t>
@@ -8502,7 +8511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8560,28 +8569,28 @@
         <v>743</v>
       </c>
       <c r="C2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="H2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="I2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8598,22 +8607,22 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F3" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="H3" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="I3" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="J3" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8627,28 +8636,28 @@
         <v>745</v>
       </c>
       <c r="C4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E4" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F4" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="G4" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="I4" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="J4" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8665,25 +8674,25 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E5" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F5" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G5" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H5" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="I5" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="J5" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8700,22 +8709,22 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E6" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F6" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G6" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H6" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="J6" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8732,25 +8741,25 @@
         <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F7" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G7" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H7" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="I7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="J7" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8767,25 +8776,25 @@
         <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E8" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F8" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G8" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="H8" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="I8" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="J8" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -8799,25 +8808,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="F9" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="H9" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="I9" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="J9" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8834,19 +8843,19 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E10" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="G10" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="H10" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="J10" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8860,28 +8869,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D11" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E11" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="F11" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="G11" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H11" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="I11" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="J11" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8898,25 +8907,25 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E12" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F12" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G12" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="H12" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="I12" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="J12" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8930,28 +8939,28 @@
         <v>748</v>
       </c>
       <c r="C13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D13" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E13" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="F13" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G13" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="H13" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="I13" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="J13" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8965,25 +8974,25 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D14" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E14" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="F14" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H14" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="I14" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="J14" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8997,22 +9006,22 @@
         <v>749</v>
       </c>
       <c r="C15" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D15" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E15" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="G15" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H15" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="J15" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9029,22 +9038,22 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E16" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="F16" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="G16" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="H16" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="J16" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9061,22 +9070,22 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E17" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F17" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="H17" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="I17" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="J17" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9090,28 +9099,28 @@
         <v>750</v>
       </c>
       <c r="C18" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D18" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E18" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="F18" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G18" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H18" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="I18" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="J18" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9125,28 +9134,28 @@
         <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D19" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E19" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F19" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="G19" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H19" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="I19" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="J19" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9163,25 +9172,25 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E20" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="F20" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="G20" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="H20" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="I20" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="J20" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9198,22 +9207,22 @@
         <v>524</v>
       </c>
       <c r="D21" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E21" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="F21" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="G21" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="H21" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="J21" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9227,28 +9236,28 @@
         <v>751</v>
       </c>
       <c r="C22" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D22" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E22" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F22" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G22" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="H22" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I22" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="J22" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9265,22 +9274,22 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E23" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F23" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H23" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="I23" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="J23" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9297,22 +9306,22 @@
         <v>317</v>
       </c>
       <c r="D24" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E24" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F24" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="H24" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="I24" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="J24" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9326,25 +9335,25 @@
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D25" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E25" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F25" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="H25" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="I25" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="J25" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9361,22 +9370,22 @@
         <v>318</v>
       </c>
       <c r="D26" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E26" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F26" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="H26" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="I26" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="J26" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9390,25 +9399,25 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D27" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E27" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="F27" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="H27" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="I27" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="J27" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9425,22 +9434,22 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E28" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F28" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G28" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H28" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="J28" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9457,22 +9466,22 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E29" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="F29" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="H29" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="I29" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="J29" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9489,25 +9498,25 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E30" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F30" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G30" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="H30" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="I30" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="J30" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9521,25 +9530,25 @@
         <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D31" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E31" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="F31" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="H31" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="I31" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="J31" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9556,25 +9565,25 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E32" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F32" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="G32" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H32" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="I32" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="J32" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9588,28 +9597,28 @@
         <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D33" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E33" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="F33" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="G33" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H33" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="I33" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="J33" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9626,25 +9635,25 @@
         <v>749</v>
       </c>
       <c r="D34" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E34" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F34" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="G34" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="H34" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="I34" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="J34" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9652,63 +9661,48 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920279</v>
+        <v>21330051420149</v>
       </c>
       <c r="B35" t="s">
         <v>757</v>
       </c>
       <c r="C35" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D35" t="s">
-        <v>814</v>
-      </c>
-      <c r="E35" t="s">
-        <v>857</v>
-      </c>
-      <c r="F35" t="s">
-        <v>898</v>
-      </c>
-      <c r="G35" t="s">
-        <v>924</v>
-      </c>
-      <c r="H35" t="s">
-        <v>963</v>
-      </c>
-      <c r="I35" t="s">
-        <v>996</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>816</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920280</v>
+        <v>21330051920279</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>758</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>780</v>
       </c>
       <c r="D36" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E36" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="F36" t="s">
+        <v>901</v>
       </c>
       <c r="G36" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H36" t="s">
-        <v>964</v>
+        <v>966</v>
+      </c>
+      <c r="I36" t="s">
+        <v>999</v>
       </c>
       <c r="J36" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9716,203 +9710,197 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920280</v>
       </c>
       <c r="B37" t="s">
-        <v>758</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>779</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E37" t="s">
-        <v>859</v>
-      </c>
-      <c r="F37" t="s">
-        <v>899</v>
+        <v>861</v>
+      </c>
+      <c r="G37" t="s">
+        <v>928</v>
       </c>
       <c r="H37" t="s">
-        <v>965</v>
-      </c>
-      <c r="I37" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="J37" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920282</v>
       </c>
       <c r="B38" t="s">
         <v>759</v>
       </c>
       <c r="C38" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="D38" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E38" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F38" t="s">
-        <v>900</v>
-      </c>
-      <c r="G38" t="s">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="H38" t="s">
-        <v>966</v>
+        <v>968</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1000</v>
       </c>
       <c r="J38" t="s">
-        <v>900</v>
+        <v>1030</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920283</v>
       </c>
       <c r="B39" t="s">
         <v>760</v>
       </c>
       <c r="C39" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D39" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E39" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F39" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G39" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H39" t="s">
-        <v>967</v>
-      </c>
-      <c r="I39" t="s">
-        <v>861</v>
+        <v>969</v>
       </c>
       <c r="J39" t="s">
-        <v>1028</v>
+        <v>903</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920284</v>
       </c>
       <c r="B40" t="s">
         <v>761</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>782</v>
       </c>
       <c r="D40" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E40" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F40" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G40" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H40" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I40" t="s">
-        <v>998</v>
+        <v>864</v>
       </c>
       <c r="J40" t="s">
-        <v>902</v>
+        <v>1031</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920285</v>
       </c>
       <c r="B41" t="s">
-        <v>543</v>
+        <v>762</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E41" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F41" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G41" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="H41" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="I41" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J41" t="s">
-        <v>1029</v>
+        <v>905</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>543</v>
       </c>
       <c r="C42" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E42" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F42" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G42" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H42" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I42" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J42" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -9920,62 +9908,97 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>762</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>781</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E43" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F43" t="s">
-        <v>905</v>
+        <v>907</v>
+      </c>
+      <c r="G43" t="s">
+        <v>907</v>
       </c>
       <c r="H43" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="I43" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="J43" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
         <v>763</v>
       </c>
       <c r="C44" t="s">
+        <v>783</v>
+      </c>
+      <c r="D44" t="s">
+        <v>825</v>
+      </c>
+      <c r="E44" t="s">
+        <v>868</v>
+      </c>
+      <c r="F44" t="s">
+        <v>908</v>
+      </c>
+      <c r="H44" t="s">
+        <v>974</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>21330051920288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>764</v>
+      </c>
+      <c r="C45" t="s">
         <v>534</v>
       </c>
-      <c r="D44" t="s">
-        <v>823</v>
-      </c>
-      <c r="E44" t="s">
-        <v>866</v>
-      </c>
-      <c r="G44" t="s">
-        <v>929</v>
-      </c>
-      <c r="H44" t="s">
-        <v>972</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K44">
+      <c r="D45" t="s">
+        <v>826</v>
+      </c>
+      <c r="E45" t="s">
+        <v>869</v>
+      </c>
+      <c r="G45" t="s">
+        <v>932</v>
+      </c>
+      <c r="H45" t="s">
+        <v>975</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
@@ -10041,7 +10064,7 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C2" t="s">
         <v>534</v>
@@ -10050,16 +10073,16 @@
         <v>562</v>
       </c>
       <c r="E2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="G2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="H2" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="J2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10079,19 +10102,19 @@
         <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="F3" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="H3" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="I3" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="J3" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10105,22 +10128,22 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F4" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="H4" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="J4" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10134,28 +10157,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D5" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E5" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="G5" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="H5" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="I5" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="J5" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10166,7 +10189,7 @@
         <v>21330051920293</v>
       </c>
       <c r="B6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -10175,19 +10198,19 @@
         <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="F6" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="H6" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="I6" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="J6" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10204,25 +10227,25 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E7" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="F7" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="G7" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="H7" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="I7" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="J7" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10239,19 +10262,19 @@
         <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E8" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F8" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="H8" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="J8" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10265,25 +10288,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="D9" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E9" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="F9" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="H9" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="I9" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="J9" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10297,22 +10320,22 @@
         <v>541</v>
       </c>
       <c r="C10" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D10" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E10" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="G10" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="H10" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="J10" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10323,31 +10346,31 @@
         <v>21330051920298</v>
       </c>
       <c r="B11" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E11" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F11" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="G11" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H11" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="I11" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="J11" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10358,31 +10381,31 @@
         <v>21330051920299</v>
       </c>
       <c r="B12" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E12" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F12" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="G12" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H12" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="I12" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="J12" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10393,28 +10416,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="C13" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="D13" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E13" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="F13" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="H13" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="I13" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="J13" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10428,22 +10451,22 @@
         <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="D14" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E14" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="G14" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="H14" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="J14" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10457,28 +10480,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="D15" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E15" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="F15" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="G15" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="H15" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="I15" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="J15" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10492,28 +10515,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D16" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E16" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="F16" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G16" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="H16" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="I16" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="J16" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10530,22 +10553,22 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E17" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="F17" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="H17" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="I17" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="J17" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10559,25 +10582,25 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D18" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E18" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="F18" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G18" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="H18" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="J18" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10588,25 +10611,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C19" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D19" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E19" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="G19" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="H19" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="J19" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10623,22 +10646,22 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="E20" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="F20" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="H20" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="I20" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="J20" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10655,22 +10678,22 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E21" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="F21" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="H21" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="I21" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="J21" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10684,25 +10707,25 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D22" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E22" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="F22" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="G22" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="H22" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="J22" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10713,31 +10736,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C23" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D23" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E23" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="F23" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="G23" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="H23" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="I23" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="J23" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10748,28 +10771,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C24" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D24" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E24" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F24" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="H24" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="I24" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="J24" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10780,31 +10803,31 @@
         <v>21330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C25" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="D25" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E25" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="F25" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="G25" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="H25" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="I25" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="J25" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -10821,25 +10844,25 @@
         <v>299</v>
       </c>
       <c r="D26" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E26" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="F26" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="G26" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="H26" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="I26" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="J26" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10853,25 +10876,25 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D27" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E27" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="F27" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="G27" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="H27" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="J27" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -10888,22 +10911,22 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="E28" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="F28" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="G28" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="H28" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="J28" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10914,28 +10937,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C29" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D29" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E29" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="F29" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="H29" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="I29" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="J29" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10946,28 +10969,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C30" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D30" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E30" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="F30" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="G30" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="H30" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="J30" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10978,31 +11001,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C31" t="s">
         <v>293</v>
       </c>
       <c r="D31" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E31" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="F31" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="G31" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="H31" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="I31" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="J31" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11019,22 +11042,22 @@
         <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E32" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="F32" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="H32" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="I32" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="J32" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11048,25 +11071,25 @@
         <v>294</v>
       </c>
       <c r="C33" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D33" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E33" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F33" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="H33" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="I33" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="J33" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11077,28 +11100,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="C34" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D34" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E34" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="F34" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="G34" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="H34" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="J34" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11112,25 +11135,25 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D35" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E35" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="F35" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="G35" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="H35" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="J35" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -11147,22 +11170,22 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E36" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F36" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="G36" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="H36" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="J36" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11176,25 +11199,25 @@
         <v>754</v>
       </c>
       <c r="C37" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D37" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E37" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="F37" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="H37" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="I37" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="J37" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11211,25 +11234,25 @@
         <v>531</v>
       </c>
       <c r="D38" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E38" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="F38" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="G38" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="H38" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="I38" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="J38" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11246,25 +11269,25 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E39" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="F39" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="G39" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="H39" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I39" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="J39" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11278,28 +11301,28 @@
         <v>756</v>
       </c>
       <c r="C40" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D40" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E40" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="F40" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="G40" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="H40" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="I40" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="J40" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11310,28 +11333,28 @@
         <v>21330051920326</v>
       </c>
       <c r="B41" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E41" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F41" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="H41" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="I41" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="J41" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11351,19 +11374,19 @@
         <v>345</v>
       </c>
       <c r="E42" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F42" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="H42" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="I42" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="J42" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11377,28 +11400,28 @@
         <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D43" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E43" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="F43" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="G43" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="H43" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="I43" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="J43" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11412,28 +11435,28 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D44" t="s">
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="F44" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="G44" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="H44" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="I44" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="J44" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11447,28 +11470,28 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D45" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E45" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F45" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="G45" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="H45" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="I45" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="J45" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11539,28 +11562,28 @@
         <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D2" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E2" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="F2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G2" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="H2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="I2" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="J2" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -11574,28 +11597,28 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="D3" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="E3" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="F3" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G3" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="H3" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="I3" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="J3" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11606,25 +11629,25 @@
         <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="C4" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D4" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E4" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="F4" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G4" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="H4" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11635,31 +11658,31 @@
         <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C5" t="s">
         <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="E5" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="F5" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="G5" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="H5" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="I5" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="J5" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11670,31 +11693,31 @@
         <v>20330051920369</v>
       </c>
       <c r="B6" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C6" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D6" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="E6" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="F6" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G6" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="H6" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="I6" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="J6" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11705,28 +11728,28 @@
         <v>20330051920160</v>
       </c>
       <c r="B7" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C7" t="s">
         <v>752</v>
       </c>
       <c r="D7" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="E7" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="F7" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="G7" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="H7" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="J7" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -11737,28 +11760,28 @@
         <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="C8" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="D8" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="E8" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="F8" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G8" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="H8" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="I8" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -11772,25 +11795,25 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="D9" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E9" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="F9" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="H9" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="I9" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="J9" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11807,25 +11830,25 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="E10" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="F10" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="G10" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="H10" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="I10" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J10" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11842,22 +11865,22 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="E11" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="F11" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="G11" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="H11" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="J11" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -11874,13 +11897,13 @@
         <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E12" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="F12" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="G12" t="s">
         <v>422</v>
@@ -11906,28 +11929,28 @@
         <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D13" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="E13" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="F13" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="G13" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="H13" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="I13" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="J13" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11944,25 +11967,25 @@
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="E14" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="F14" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="G14" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="H14" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="I14" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="J14" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11976,25 +11999,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D15" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E15" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="F15" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="H15" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="I15" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="J15" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -12005,28 +12028,28 @@
         <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C16" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="D16" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="E16" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="F16" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="H16" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="I16" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="J16" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -12037,31 +12060,31 @@
         <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="E17" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="F17" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="G17" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="H17" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="I17" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="J17" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -12072,28 +12095,28 @@
         <v>20330051920371</v>
       </c>
       <c r="B18" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C18" t="s">
         <v>541</v>
       </c>
       <c r="D18" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="E18" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="F18" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="G18" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H18" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="J18" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -12104,28 +12127,28 @@
         <v>20330051920171</v>
       </c>
       <c r="B19" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C19" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D19" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="E19" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="F19" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="H19" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="I19" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="J19" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -12136,28 +12159,28 @@
         <v>20330051920172</v>
       </c>
       <c r="B20" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C20" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D20" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="E20" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="F20" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="G20" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="H20" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="J20" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -12168,31 +12191,31 @@
         <v>20330051920173</v>
       </c>
       <c r="B21" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C21" t="s">
         <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="E21" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="F21" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G21" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="H21" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="I21" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="J21" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -12203,31 +12226,31 @@
         <v>20330051920174</v>
       </c>
       <c r="B22" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="E22" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="F22" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="G22" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="H22" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="I22" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="J22" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12238,31 +12261,31 @@
         <v>20330051920306</v>
       </c>
       <c r="B23" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C23" t="s">
         <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="E23" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="F23" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G23" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="H23" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="I23" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="J23" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -12273,31 +12296,31 @@
         <v>20330051920177</v>
       </c>
       <c r="B24" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="E24" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="F24" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G24" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="H24" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="I24" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="J24" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -12308,25 +12331,25 @@
         <v>20330051920178</v>
       </c>
       <c r="B25" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="E25" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="F25" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G25" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="H25" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -12340,25 +12363,25 @@
         <v>754</v>
       </c>
       <c r="C26" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D26" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="E26" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="F26" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="H26" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="I26" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="J26" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12375,25 +12398,25 @@
         <v>522</v>
       </c>
       <c r="D27" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="E27" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="F27" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="G27" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="H27" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="I27" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="J27" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -12407,28 +12430,28 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="D28" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="E28" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="F28" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G28" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="H28" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="I28" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="J28" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -12445,22 +12468,22 @@
         <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="E29" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="F29" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G29" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="H29" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="J29" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -12477,25 +12500,25 @@
         <v>299</v>
       </c>
       <c r="D30" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="E30" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="F30" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="G30" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="H30" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="I30" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="J30" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -12506,31 +12529,31 @@
         <v>20330051920393</v>
       </c>
       <c r="B31" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C31" t="s">
         <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="E31" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="F31" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G31" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="H31" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="I31" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="J31" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -12544,25 +12567,25 @@
         <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D32" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="E32" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="F32" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="H32" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="I32" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="J32" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -12576,28 +12599,28 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="D33" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="E33" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="F33" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G33" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="H33" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="I33" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="J33" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -12611,28 +12634,28 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="D34" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="E34" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="F34" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G34" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="H34" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="I34" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="J34" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -12643,31 +12666,31 @@
         <v>20330051920154</v>
       </c>
       <c r="B35" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="E35" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="F35" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G35" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="H35" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="I35" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="J35" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -12678,25 +12701,25 @@
         <v>20330051920186</v>
       </c>
       <c r="B36" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="C36" t="s">
         <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="E36" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="F36" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="H36" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="J36" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -12710,25 +12733,25 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="D37" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="E37" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="F37" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="H37" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="I37" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="J37" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="K37">
         <v>1</v>

--- a/Flores González Ángel 20212.xlsx
+++ b/Flores González Ángel 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1535">
   <si>
     <t>NC</t>
   </si>
@@ -2601,6 +2601,9 @@
     <t>arantxitautam@gmail.com</t>
   </si>
   <si>
+    <t>#N/D</t>
+  </si>
+  <si>
     <t>sanjuanarauzisai@gmail.com</t>
   </si>
   <si>
@@ -2917,6 +2920,9 @@
   </si>
   <si>
     <t>HAIDE JIMÉNEZ CERÓN</t>
+  </si>
+  <si>
+    <t>#N/D #N/D #N/D</t>
   </si>
   <si>
     <t>ARCENIA ARAUZ ROSAS</t>
@@ -7962,7 +7968,7 @@
         <v>729</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8195,7 +8201,7 @@
         <v>735</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8578,19 +8584,19 @@
         <v>827</v>
       </c>
       <c r="F2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I2" t="s">
         <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8613,16 +8619,16 @@
         <v>828</v>
       </c>
       <c r="F3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I3" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J3" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8645,19 +8651,19 @@
         <v>829</v>
       </c>
       <c r="F4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I4" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="J4" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8680,19 +8686,19 @@
         <v>830</v>
       </c>
       <c r="F5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I5" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="J5" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8715,16 +8721,16 @@
         <v>831</v>
       </c>
       <c r="F6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8747,19 +8753,19 @@
         <v>832</v>
       </c>
       <c r="F7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I7" t="s">
         <v>832</v>
       </c>
       <c r="J7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8782,19 +8788,19 @@
         <v>833</v>
       </c>
       <c r="F8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I8" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="J8" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -8817,16 +8823,16 @@
         <v>834</v>
       </c>
       <c r="F9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H9" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I9" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J9" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8849,13 +8855,13 @@
         <v>835</v>
       </c>
       <c r="G10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H10" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J10" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8878,19 +8884,19 @@
         <v>836</v>
       </c>
       <c r="F11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H11" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I11" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8913,19 +8919,19 @@
         <v>837</v>
       </c>
       <c r="F12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G12" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H12" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I12" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="J12" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8948,19 +8954,19 @@
         <v>838</v>
       </c>
       <c r="F13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I13" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="J13" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8983,16 +8989,16 @@
         <v>839</v>
       </c>
       <c r="F14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="I14" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="J14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9015,13 +9021,13 @@
         <v>840</v>
       </c>
       <c r="G15" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H15" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J15" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9044,16 +9050,16 @@
         <v>841</v>
       </c>
       <c r="F16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="J16" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9076,16 +9082,16 @@
         <v>842</v>
       </c>
       <c r="F17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H17" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I17" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="J17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9108,19 +9114,19 @@
         <v>843</v>
       </c>
       <c r="F18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H18" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I18" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="J18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9143,19 +9149,19 @@
         <v>844</v>
       </c>
       <c r="F19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G19" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H19" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="I19" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="J19" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9178,19 +9184,19 @@
         <v>845</v>
       </c>
       <c r="F20" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G20" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H20" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="I20" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="J20" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9213,16 +9219,16 @@
         <v>846</v>
       </c>
       <c r="F21" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G21" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H21" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="J21" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9245,19 +9251,19 @@
         <v>847</v>
       </c>
       <c r="F22" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G22" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H22" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="I22" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="J22" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9280,16 +9286,16 @@
         <v>848</v>
       </c>
       <c r="F23" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H23" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="I23" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="J23" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9312,16 +9318,16 @@
         <v>849</v>
       </c>
       <c r="F24" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H24" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="I24" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J24" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9344,16 +9350,16 @@
         <v>850</v>
       </c>
       <c r="F25" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H25" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="I25" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="J25" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9376,16 +9382,16 @@
         <v>851</v>
       </c>
       <c r="F26" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H26" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I26" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="J26" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9408,16 +9414,16 @@
         <v>852</v>
       </c>
       <c r="F27" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H27" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I27" t="s">
         <v>852</v>
       </c>
       <c r="J27" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9440,16 +9446,16 @@
         <v>853</v>
       </c>
       <c r="F28" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G28" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H28" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="J28" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9472,16 +9478,16 @@
         <v>854</v>
       </c>
       <c r="F29" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H29" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="I29" t="s">
         <v>854</v>
       </c>
       <c r="J29" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9504,19 +9510,19 @@
         <v>855</v>
       </c>
       <c r="F30" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G30" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H30" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I30" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="J30" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9539,16 +9545,16 @@
         <v>856</v>
       </c>
       <c r="F31" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H31" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I31" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="J31" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9571,19 +9577,19 @@
         <v>857</v>
       </c>
       <c r="F32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G32" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H32" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="I32" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J32" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9606,19 +9612,19 @@
         <v>858</v>
       </c>
       <c r="F33" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G33" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H33" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="I33" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="J33" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9641,19 +9647,19 @@
         <v>859</v>
       </c>
       <c r="F34" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G34" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H34" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I34" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9672,6 +9678,24 @@
       <c r="D35" t="s">
         <v>816</v>
       </c>
+      <c r="E35" t="s">
+        <v>860</v>
+      </c>
+      <c r="F35" t="s">
+        <v>860</v>
+      </c>
+      <c r="H35" t="s">
+        <v>967</v>
+      </c>
+      <c r="I35" t="s">
+        <v>860</v>
+      </c>
+      <c r="J35" t="s">
+        <v>860</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
@@ -9687,22 +9711,22 @@
         <v>817</v>
       </c>
       <c r="E36" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F36" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G36" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H36" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="I36" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J36" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9722,16 +9746,16 @@
         <v>818</v>
       </c>
       <c r="E37" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G37" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H37" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="J37" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -9751,19 +9775,19 @@
         <v>819</v>
       </c>
       <c r="E38" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F38" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H38" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I38" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J38" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -9783,19 +9807,19 @@
         <v>820</v>
       </c>
       <c r="E39" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F39" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G39" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H39" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="J39" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -9815,22 +9839,22 @@
         <v>821</v>
       </c>
       <c r="E40" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F40" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G40" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H40" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I40" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J40" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -9850,22 +9874,22 @@
         <v>822</v>
       </c>
       <c r="E41" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F41" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G41" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H41" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="I41" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="J41" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -9885,22 +9909,22 @@
         <v>823</v>
       </c>
       <c r="E42" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F42" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G42" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H42" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="I42" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J42" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -9920,22 +9944,22 @@
         <v>824</v>
       </c>
       <c r="E43" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F43" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G43" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H43" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I43" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="J43" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -9955,19 +9979,19 @@
         <v>825</v>
       </c>
       <c r="E44" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F44" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="I44" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="J44" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -9987,16 +10011,16 @@
         <v>826</v>
       </c>
       <c r="E45" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G45" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="J45" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -10064,7 +10088,7 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C2" t="s">
         <v>534</v>
@@ -10073,16 +10097,16 @@
         <v>562</v>
       </c>
       <c r="E2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="G2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="H2" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10102,19 +10126,19 @@
         <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H3" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I3" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="J3" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10128,22 +10152,22 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F4" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H4" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="J4" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10157,28 +10181,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D5" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E5" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F5" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G5" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H5" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I5" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="J5" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10189,7 +10213,7 @@
         <v>21330051920293</v>
       </c>
       <c r="B6" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -10198,19 +10222,19 @@
         <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F6" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H6" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I6" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="J6" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10227,25 +10251,25 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E7" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F7" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G7" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="H7" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I7" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="J7" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10262,19 +10286,19 @@
         <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E8" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F8" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H8" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="J8" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10288,25 +10312,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D9" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E9" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F9" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H9" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I9" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="J9" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10320,22 +10344,22 @@
         <v>541</v>
       </c>
       <c r="C10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D10" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E10" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G10" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="H10" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="J10" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10346,31 +10370,31 @@
         <v>21330051920298</v>
       </c>
       <c r="B11" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E11" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F11" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="G11" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H11" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="I11" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J11" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10381,31 +10405,31 @@
         <v>21330051920299</v>
       </c>
       <c r="B12" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E12" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F12" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G12" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H12" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="I12" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J12" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10416,28 +10440,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C13" t="s">
         <v>1039</v>
       </c>
-      <c r="C13" t="s">
-        <v>1037</v>
-      </c>
       <c r="D13" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E13" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F13" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H13" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="I13" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="J13" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10451,22 +10475,22 @@
         <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G14" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="H14" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J14" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10480,28 +10504,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D15" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E15" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F15" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G15" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H15" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="I15" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="J15" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10515,28 +10539,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D16" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E16" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="F16" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G16" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="H16" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="I16" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="J16" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10553,22 +10577,22 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E17" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F17" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H17" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="I17" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="J17" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10582,25 +10606,25 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D18" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E18" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="F18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="G18" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="H18" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J18" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10611,25 +10635,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C19" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D19" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E19" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G19" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="H19" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J19" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10646,22 +10670,22 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E20" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="F20" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H20" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I20" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="J20" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10678,22 +10702,22 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E21" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F21" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H21" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="I21" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="J21" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10707,25 +10731,25 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D22" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E22" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F22" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="G22" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H22" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J22" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10736,31 +10760,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C23" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D23" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E23" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F23" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G23" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="H23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I23" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="J23" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10771,28 +10795,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C24" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D24" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E24" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="F24" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H24" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="I24" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="J24" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10803,31 +10827,31 @@
         <v>21330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C25" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D25" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E25" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F25" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="G25" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H25" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="I25" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="J25" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -10844,25 +10868,25 @@
         <v>299</v>
       </c>
       <c r="D26" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E26" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F26" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H26" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="I26" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="J26" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10876,25 +10900,25 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D27" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E27" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F27" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="G27" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H27" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J27" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -10911,22 +10935,22 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E28" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="F28" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G28" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="H28" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J28" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10937,28 +10961,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C29" t="s">
         <v>1044</v>
       </c>
-      <c r="C29" t="s">
-        <v>1042</v>
-      </c>
       <c r="D29" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E29" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F29" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H29" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="I29" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="J29" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10969,28 +10993,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C30" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D30" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="E30" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F30" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="G30" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="H30" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J30" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -11001,31 +11025,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C31" t="s">
         <v>293</v>
       </c>
       <c r="D31" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E31" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F31" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="G31" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="H31" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="I31" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="J31" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11042,22 +11066,22 @@
         <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E32" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="F32" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H32" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="I32" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="J32" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11071,25 +11095,25 @@
         <v>294</v>
       </c>
       <c r="C33" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D33" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E33" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F33" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H33" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="I33" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="J33" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11100,28 +11124,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C34" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D34" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E34" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="F34" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G34" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="H34" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J34" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11135,25 +11159,25 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D35" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E35" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F35" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G35" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="H35" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="J35" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -11170,22 +11194,22 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E36" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F36" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G36" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="H36" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="J36" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11199,25 +11223,25 @@
         <v>754</v>
       </c>
       <c r="C37" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D37" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E37" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F37" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="H37" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I37" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="J37" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11234,25 +11258,25 @@
         <v>531</v>
       </c>
       <c r="D38" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E38" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="F38" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G38" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="H38" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="I38" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="J38" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11269,25 +11293,25 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E39" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F39" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="G39" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="H39" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="I39" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="J39" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11304,25 +11328,25 @@
         <v>763</v>
       </c>
       <c r="D40" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E40" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="F40" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G40" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="H40" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="I40" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="J40" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11333,28 +11357,28 @@
         <v>21330051920326</v>
       </c>
       <c r="B41" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E41" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="F41" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="H41" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="I41" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="J41" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11374,19 +11398,19 @@
         <v>345</v>
       </c>
       <c r="E42" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="F42" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="H42" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="I42" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="J42" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11400,28 +11424,28 @@
         <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D43" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E43" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F43" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G43" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="H43" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="I43" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="J43" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11435,28 +11459,28 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D44" t="s">
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="F44" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="G44" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="H44" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I44" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="J44" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11470,28 +11494,28 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D45" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E45" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F45" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="G45" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="H45" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="I45" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="J45" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11565,25 +11589,25 @@
         <v>762</v>
       </c>
       <c r="D2" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="E2" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="H2" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="I2" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="J2" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -11597,28 +11621,28 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D3" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="E3" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G3" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="H3" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="I3" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="J3" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11629,25 +11653,25 @@
         <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C4" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D4" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="E4" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F4" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G4" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="H4" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11658,31 +11682,31 @@
         <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C5" t="s">
         <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E5" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F5" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G5" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="H5" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="I5" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="J5" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11693,31 +11717,31 @@
         <v>20330051920369</v>
       </c>
       <c r="B6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C6" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="E6" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="F6" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G6" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="H6" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="I6" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="J6" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11728,28 +11752,28 @@
         <v>20330051920160</v>
       </c>
       <c r="B7" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C7" t="s">
         <v>752</v>
       </c>
       <c r="D7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="E7" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F7" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G7" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="H7" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="J7" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -11760,28 +11784,28 @@
         <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E8" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="F8" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G8" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="H8" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="I8" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -11795,25 +11819,25 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="E9" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="F9" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H9" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="I9" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="J9" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11830,25 +11854,25 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="E10" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="F10" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G10" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="H10" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I10" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="J10" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11865,22 +11889,22 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E11" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F11" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G11" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="H11" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="J11" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -11900,10 +11924,10 @@
         <v>815</v>
       </c>
       <c r="E12" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="F12" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="G12" t="s">
         <v>422</v>
@@ -11929,28 +11953,28 @@
         <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="E13" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F13" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G13" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="H13" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="I13" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="J13" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11967,25 +11991,25 @@
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="E14" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="F14" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G14" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="H14" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="I14" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="J14" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11999,25 +12023,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D15" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E15" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F15" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H15" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="I15" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="J15" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -12028,28 +12052,28 @@
         <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C16" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D16" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E16" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="F16" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="H16" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="I16" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="J16" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -12060,31 +12084,31 @@
         <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E17" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F17" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G17" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="H17" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="I17" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="J17" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -12095,28 +12119,28 @@
         <v>20330051920371</v>
       </c>
       <c r="B18" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C18" t="s">
         <v>541</v>
       </c>
       <c r="D18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E18" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="F18" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G18" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="H18" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="J18" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -12127,28 +12151,28 @@
         <v>20330051920171</v>
       </c>
       <c r="B19" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C19" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D19" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E19" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="F19" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="H19" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="I19" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="J19" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -12159,28 +12183,28 @@
         <v>20330051920172</v>
       </c>
       <c r="B20" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C20" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D20" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="E20" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="F20" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="G20" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="H20" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="J20" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -12191,31 +12215,31 @@
         <v>20330051920173</v>
       </c>
       <c r="B21" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C21" t="s">
         <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="E21" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F21" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="G21" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="H21" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="I21" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="J21" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -12226,31 +12250,31 @@
         <v>20330051920174</v>
       </c>
       <c r="B22" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E22" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="F22" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="G22" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="H22" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="I22" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="J22" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12261,31 +12285,31 @@
         <v>20330051920306</v>
       </c>
       <c r="B23" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C23" t="s">
         <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="E23" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F23" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="G23" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="H23" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="I23" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="J23" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -12296,31 +12320,31 @@
         <v>20330051920177</v>
       </c>
       <c r="B24" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E24" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="F24" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G24" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="H24" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I24" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="J24" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -12331,25 +12355,25 @@
         <v>20330051920178</v>
       </c>
       <c r="B25" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="E25" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F25" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G25" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="H25" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -12363,25 +12387,25 @@
         <v>754</v>
       </c>
       <c r="C26" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D26" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="E26" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="F26" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="H26" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="I26" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="J26" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12398,25 +12422,25 @@
         <v>522</v>
       </c>
       <c r="D27" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E27" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="F27" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G27" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="H27" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="I27" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="J27" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -12430,28 +12454,28 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D28" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="E28" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="F28" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="G28" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="H28" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="I28" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="J28" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -12468,22 +12492,22 @@
         <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E29" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F29" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G29" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H29" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="J29" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -12500,25 +12524,25 @@
         <v>299</v>
       </c>
       <c r="D30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="E30" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="F30" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="G30" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="H30" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="I30" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="J30" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -12529,31 +12553,31 @@
         <v>20330051920393</v>
       </c>
       <c r="B31" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C31" t="s">
         <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E31" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F31" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="G31" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="H31" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="I31" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="J31" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -12567,25 +12591,25 @@
         <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D32" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E32" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="F32" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="H32" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="I32" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="J32" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -12599,28 +12623,28 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D33" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="E33" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F33" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="G33" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="H33" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="I33" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="J33" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -12634,28 +12658,28 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D34" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="E34" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="F34" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="G34" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="H34" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="I34" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="J34" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -12666,31 +12690,31 @@
         <v>20330051920154</v>
       </c>
       <c r="B35" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="E35" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F35" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="G35" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="H35" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="I35" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="J35" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -12701,25 +12725,25 @@
         <v>20330051920186</v>
       </c>
       <c r="B36" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C36" t="s">
         <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="E36" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="F36" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="H36" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="J36" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -12733,25 +12757,25 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D37" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="E37" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F37" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="H37" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="I37" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J37" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="K37">
         <v>1</v>
